--- a/Descargas/R15_Juzgado De Garantia De Colina_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Colina_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B93" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
